--- a/documents/test/3_Testing_Projektleiter_KA.xlsx
+++ b/documents/test/3_Testing_Projektleiter_KA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="7716"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="7710"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="60">
   <si>
     <t>Anmerkung</t>
   </si>
@@ -58,9 +58,6 @@
     <t>admin</t>
   </si>
   <si>
-    <t>Nein</t>
-  </si>
-  <si>
     <t>Dashboard</t>
   </si>
   <si>
@@ -197,9 +194,6 @@
   </si>
   <si>
     <t>Kommt durch die Entfernung der Arbeitspakettabelle</t>
-  </si>
-  <si>
-    <t>Kein Test möglich da Antrag nicht geöffnet werden kann</t>
   </si>
 </sst>
 </file>
@@ -408,7 +402,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -446,26 +440,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -772,25 +746,25 @@
   <dimension ref="B1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
     <col min="2" max="2" width="23" style="2" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="28.44140625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="32.33203125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="43.33203125" style="2" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="2"/>
-    <col min="9" max="9" width="14.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="2"/>
+    <col min="3" max="3" width="12.28515625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26.7109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="28.42578125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="43.28515625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" style="2"/>
+    <col min="9" max="9" width="14.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.85546875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
@@ -798,16 +772,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:10" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B3" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="5" spans="2:10" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="5" spans="2:10" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
@@ -834,12 +808,12 @@
       </c>
       <c r="J5" s="8"/>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>9</v>
@@ -858,21 +832,21 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1"/>
       <c r="H7" s="1" t="s">
@@ -882,69 +856,69 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I8" s="10">
         <v>42613</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="G9" s="12" t="s">
-        <v>58</v>
-      </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I9" s="10">
         <v>42613</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="F10" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G10" s="1"/>
       <c r="H10" s="1" t="s">
@@ -954,19 +928,19 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D11" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G11" s="1"/>
       <c r="H11" s="1" t="s">
@@ -976,183 +950,181 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="E12" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="G12" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I12" s="10">
         <v>42613</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D13" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="F13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="13" t="s">
-        <v>61</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="G13" s="13"/>
       <c r="H13" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I13" s="10">
         <v>42613</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="F14" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="G14" s="1"/>
       <c r="H14" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I14" s="10">
         <v>42613</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="G15" s="1"/>
       <c r="H15" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I15" s="10">
         <v>42613</v>
       </c>
     </row>
-    <row r="16" spans="2:10" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G16" s="1" t="s">
-        <v>43</v>
-      </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I16" s="10">
         <v>42613</v>
       </c>
     </row>
-    <row r="17" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G17" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I17" s="10">
         <v>42613</v>
       </c>
     </row>
-    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G18" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="I18" s="10">
         <v>42613</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D19" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="F19" s="1" t="s">
         <v>51</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>52</v>
       </c>
       <c r="G19" s="1"/>
       <c r="H19" s="1" t="s">
@@ -1162,47 +1134,47 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="F20" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I20" s="10">
+        <v>42613</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I20" s="10">
-        <v>42613</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
+      <c r="C21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="E21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G21" s="1"/>
       <c r="H21" s="1" t="s">
@@ -1212,21 +1184,21 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E22" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="F22" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G22" s="1"/>
       <c r="H22" s="1" t="s">
@@ -1236,7 +1208,7 @@
         <v>42613</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1246,7 +1218,7 @@
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1256,7 +1228,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1266,7 +1238,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1276,7 +1248,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1286,7 +1258,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1296,7 +1268,7 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -1306,7 +1278,7 @@
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -1316,7 +1288,7 @@
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -1326,7 +1298,7 @@
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -1336,7 +1308,7 @@
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -1346,7 +1318,7 @@
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -1356,7 +1328,7 @@
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -1366,7 +1338,7 @@
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -1376,7 +1348,7 @@
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -1386,7 +1358,7 @@
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1396,7 +1368,7 @@
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1406,7 +1378,7 @@
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1416,7 +1388,7 @@
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1426,7 +1398,7 @@
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1436,7 +1408,7 @@
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1446,7 +1418,7 @@
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1456,7 +1428,7 @@
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1466,7 +1438,7 @@
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
     </row>
-    <row r="46" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="11"/>
@@ -1476,7 +1448,7 @@
       <c r="H46" s="11"/>
       <c r="I46" s="11"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
       <c r="D47" s="8"/>
@@ -1486,7 +1458,7 @@
       <c r="H47" s="8"/>
       <c r="I47" s="8"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
       <c r="D48" s="8"/>
@@ -1496,7 +1468,7 @@
       <c r="H48" s="8"/>
       <c r="I48" s="8"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
@@ -1506,7 +1478,7 @@
       <c r="H49" s="8"/>
       <c r="I49" s="8"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
       <c r="D50" s="8"/>
@@ -1516,7 +1488,7 @@
       <c r="H50" s="8"/>
       <c r="I50" s="8"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
       <c r="D51" s="8"/>
@@ -1526,7 +1498,7 @@
       <c r="H51" s="8"/>
       <c r="I51" s="8"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="8"/>
@@ -1536,7 +1508,7 @@
       <c r="H52" s="8"/>
       <c r="I52" s="8"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
@@ -1546,7 +1518,7 @@
       <c r="H53" s="8"/>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
       <c r="D54" s="8"/>
@@ -1556,7 +1528,7 @@
       <c r="H54" s="8"/>
       <c r="I54" s="8"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="8"/>
